--- a/multiplus_simulator/results/qoe_sim4.xlsx
+++ b/multiplus_simulator/results/qoe_sim4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>User1</t>
   </si>
@@ -164,6 +164,111 @@
   </si>
   <si>
     <t>User50</t>
+  </si>
+  <si>
+    <t>User51</t>
+  </si>
+  <si>
+    <t>User52</t>
+  </si>
+  <si>
+    <t>User53</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>User55</t>
+  </si>
+  <si>
+    <t>User56</t>
+  </si>
+  <si>
+    <t>User57</t>
+  </si>
+  <si>
+    <t>User58</t>
+  </si>
+  <si>
+    <t>User59</t>
+  </si>
+  <si>
+    <t>User60</t>
+  </si>
+  <si>
+    <t>User61</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>User63</t>
+  </si>
+  <si>
+    <t>User64</t>
+  </si>
+  <si>
+    <t>User65</t>
+  </si>
+  <si>
+    <t>User66</t>
+  </si>
+  <si>
+    <t>User67</t>
+  </si>
+  <si>
+    <t>User68</t>
+  </si>
+  <si>
+    <t>User69</t>
+  </si>
+  <si>
+    <t>User70</t>
+  </si>
+  <si>
+    <t>User71</t>
+  </si>
+  <si>
+    <t>User72</t>
+  </si>
+  <si>
+    <t>User73</t>
+  </si>
+  <si>
+    <t>User74</t>
+  </si>
+  <si>
+    <t>User75</t>
+  </si>
+  <si>
+    <t>User76</t>
+  </si>
+  <si>
+    <t>User77</t>
+  </si>
+  <si>
+    <t>User78</t>
+  </si>
+  <si>
+    <t>User79</t>
+  </si>
+  <si>
+    <t>User80</t>
+  </si>
+  <si>
+    <t>User81</t>
+  </si>
+  <si>
+    <t>User82</t>
+  </si>
+  <si>
+    <t>User83</t>
+  </si>
+  <si>
+    <t>User84</t>
+  </si>
+  <si>
+    <t>User85</t>
   </si>
   <si>
     <t>#Users</t>
@@ -519,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,64 +632,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -592,64 +697,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C2">
-        <v>1.04315442543658</v>
+        <v>4.071212176876324</v>
       </c>
       <c r="D2">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.556350575859674</v>
       </c>
       <c r="G2">
-        <v>1.063879119723762</v>
+        <v>4.295706812504523</v>
       </c>
       <c r="H2">
-        <v>1.041651917138526</v>
+        <v>3.867827065385245</v>
       </c>
       <c r="I2">
-        <v>0.9888607813449256</v>
+        <v>3.44040161034542</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L2">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M2">
-        <v>1.048278911584301</v>
+        <v>4.208420357535069</v>
       </c>
       <c r="N2">
-        <v>1.025193550437113</v>
+        <v>3.613155808637991</v>
       </c>
       <c r="O2">
-        <v>0.9686543630543183</v>
+        <v>2.261086471205804</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.971543163736455</v>
       </c>
       <c r="Q2">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R2">
-        <v>1.042314553449994</v>
+        <v>3.974615468026004</v>
       </c>
       <c r="S2">
-        <v>1.004630242898662</v>
+        <v>3.467309331748886</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.531607781116795</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -657,64 +762,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C3">
-        <v>1.04315442543658</v>
+        <v>4.030891971657225</v>
       </c>
       <c r="D3">
-        <v>1.007331297478956</v>
+        <v>3.512070291144554</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.556260025737084</v>
       </c>
       <c r="G3">
-        <v>1.063879119723762</v>
+        <v>4.295902356483357</v>
       </c>
       <c r="H3">
-        <v>1.041651917138526</v>
+        <v>3.86828193353746</v>
       </c>
       <c r="I3">
-        <v>0.9885020446512783</v>
+        <v>3.440463747124448</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L3">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M3">
-        <v>1.048278911584301</v>
+        <v>4.133423380480236</v>
       </c>
       <c r="N3">
-        <v>1.025193550437113</v>
+        <v>3.51942354636192</v>
       </c>
       <c r="O3">
-        <v>0.9680497855920076</v>
+        <v>2.237664218636218</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.861869898321453</v>
       </c>
       <c r="Q3">
-        <v>1.063879119723762</v>
+        <v>4.306497144919303</v>
       </c>
       <c r="R3">
-        <v>1.042220403815936</v>
+        <v>3.962510216287616</v>
       </c>
       <c r="S3">
-        <v>1.004862998135761</v>
+        <v>3.46014497318621</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.09256317588795</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.528378375321053</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -722,64 +827,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063879119723762</v>
+        <v>4.307329877452789</v>
       </c>
       <c r="C4">
-        <v>1.043061760259288</v>
+        <v>4.071325353354895</v>
       </c>
       <c r="D4">
-        <v>1.007547763174238</v>
+        <v>3.518426047264413</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.556372548386334</v>
       </c>
       <c r="G4">
-        <v>1.063879119723762</v>
+        <v>4.295841366994498</v>
       </c>
       <c r="H4">
-        <v>1.041651917138526</v>
+        <v>3.872369534738916</v>
       </c>
       <c r="I4">
-        <v>0.9885020446512783</v>
+        <v>3.44056130069807</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L4">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M4">
-        <v>1.048278911584301</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N4">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O4">
-        <v>0.9680497855920076</v>
+        <v>2.261268292018427</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.967393916258451</v>
       </c>
       <c r="Q4">
-        <v>1.063879119723762</v>
+        <v>4.306497144919303</v>
       </c>
       <c r="R4">
-        <v>1.042220403815936</v>
+        <v>3.981290406163803</v>
       </c>
       <c r="S4">
-        <v>1.004862998135761</v>
+        <v>3.46727598516227</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.531822271819133</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -787,58 +892,58 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C5">
-        <v>1.04315442543658</v>
+        <v>3.883022846201865</v>
       </c>
       <c r="D5">
-        <v>1.007547763174238</v>
+        <v>3.390707602718066</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.043244775932973</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.556305300853272</v>
       </c>
       <c r="G5">
-        <v>1.063879119723762</v>
+        <v>4.295634907768288</v>
       </c>
       <c r="H5">
-        <v>1.041651917138526</v>
+        <v>3.876679179613233</v>
       </c>
       <c r="I5">
-        <v>0.9888607813449256</v>
+        <v>3.440668912500457</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.520529969194051</v>
       </c>
       <c r="L5">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M5">
-        <v>1.048278911584301</v>
+        <v>1.280896089661807</v>
       </c>
       <c r="N5">
-        <v>1.025193550437113</v>
+        <v>0.7006880829289459</v>
       </c>
       <c r="O5">
-        <v>0.9686543630543183</v>
+        <v>0.02163490334248586</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R5">
-        <v>1.042314553449994</v>
+        <v>1.801278981858055</v>
       </c>
       <c r="S5">
-        <v>1.004630242898662</v>
+        <v>0.2626702696591363</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -852,64 +957,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C6">
-        <v>1.04315442543658</v>
+        <v>4.032900214102646</v>
       </c>
       <c r="D6">
-        <v>1.007331297478956</v>
+        <v>3.515238968938014</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.526728060659481</v>
       </c>
       <c r="G6">
-        <v>1.063879119723762</v>
+        <v>4.295701184610341</v>
       </c>
       <c r="H6">
-        <v>1.041651917138526</v>
+        <v>3.88001073379951</v>
       </c>
       <c r="I6">
-        <v>0.9888607813449256</v>
+        <v>3.439983907107872</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="L6">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M6">
-        <v>1.048194343718027</v>
+        <v>4.107530379909694</v>
       </c>
       <c r="N6">
-        <v>1.025193550437113</v>
+        <v>3.492481071380594</v>
       </c>
       <c r="O6">
-        <v>0.9686543630543183</v>
+        <v>2.128525412004817</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.851901990271451</v>
       </c>
       <c r="Q6">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R6">
-        <v>1.042220403815936</v>
+        <v>3.956909472714398</v>
       </c>
       <c r="S6">
-        <v>1.004862998135761</v>
+        <v>3.431547506009911</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.3613533598397809</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.4763859481603</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -917,64 +1022,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C7">
-        <v>1.04315442543658</v>
+        <v>4.071011501469604</v>
       </c>
       <c r="D7">
-        <v>1.007762976878079</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.555928138879209</v>
       </c>
       <c r="G7">
-        <v>1.063879119723762</v>
+        <v>4.295630919629575</v>
       </c>
       <c r="H7">
-        <v>1.041651917138526</v>
+        <v>3.868015599875478</v>
       </c>
       <c r="I7">
-        <v>0.9888607813449256</v>
+        <v>3.440869362472608</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L7">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M7">
-        <v>1.048278911584301</v>
+        <v>4.208420357535069</v>
       </c>
       <c r="N7">
-        <v>1.025330064300367</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O7">
-        <v>0.9680497855920076</v>
+        <v>2.261511753027303</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.976357336045458</v>
       </c>
       <c r="Q7">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R7">
-        <v>1.042220403815936</v>
+        <v>3.975084690805544</v>
       </c>
       <c r="S7">
-        <v>1.004862998135761</v>
+        <v>3.4673155966761</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.532172477624832</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -982,58 +1087,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C8">
-        <v>1.04315442543658</v>
+        <v>3.93101571967984</v>
       </c>
       <c r="D8">
-        <v>1.007547763174238</v>
+        <v>3.444746187087157</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.103584476890234</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.524449604102968</v>
       </c>
       <c r="G8">
-        <v>1.063879119723762</v>
+        <v>4.295576675043815</v>
       </c>
       <c r="H8">
-        <v>1.041651917138526</v>
+        <v>3.877774472066485</v>
       </c>
       <c r="I8">
-        <v>0.9888607813449256</v>
+        <v>3.440901725529101</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="L8">
-        <v>1.063946860443778</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M8">
-        <v>1.048278911584301</v>
+        <v>1.89945181350929</v>
       </c>
       <c r="N8">
-        <v>1.025056581907364</v>
+        <v>1.415379481811714</v>
       </c>
       <c r="O8">
-        <v>0.9692500660458905</v>
+        <v>0.282629944126547</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.622146461275031</v>
       </c>
       <c r="Q8">
-        <v>1.063879119723762</v>
+        <v>4.287003399025974</v>
       </c>
       <c r="R8">
-        <v>1.042220403815936</v>
+        <v>3.929317693878987</v>
       </c>
       <c r="S8">
-        <v>1.004630242898662</v>
+        <v>1.794797778062355</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1047,64 +1152,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C9">
-        <v>1.04315442543658</v>
+        <v>4.070743401881669</v>
       </c>
       <c r="D9">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.556305300853272</v>
       </c>
       <c r="G9">
-        <v>1.063879119723762</v>
+        <v>4.295905165611291</v>
       </c>
       <c r="H9">
-        <v>1.041651917138526</v>
+        <v>3.864233297954628</v>
       </c>
       <c r="I9">
-        <v>0.9885020446512783</v>
+        <v>3.440370695344903</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="L9">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M9">
-        <v>1.048194343718027</v>
+        <v>4.208420357535069</v>
       </c>
       <c r="N9">
-        <v>1.025330064300367</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O9">
-        <v>0.9680497855920076</v>
+        <v>2.261073442099081</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.971693344904198</v>
       </c>
       <c r="Q9">
-        <v>1.063879119723762</v>
+        <v>4.306497144919303</v>
       </c>
       <c r="R9">
-        <v>1.042220403815936</v>
+        <v>3.974165391956516</v>
       </c>
       <c r="S9">
-        <v>1.004630242898662</v>
+        <v>3.466865052635362</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.531964221305495</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1112,64 +1217,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C10">
-        <v>1.04315442543658</v>
+        <v>4.071154192422652</v>
       </c>
       <c r="D10">
-        <v>1.007331297478957</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.556411001998125</v>
       </c>
       <c r="G10">
-        <v>1.063879119723762</v>
+        <v>4.295690379014082</v>
       </c>
       <c r="H10">
-        <v>1.041651917138526</v>
+        <v>3.872157007703549</v>
       </c>
       <c r="I10">
-        <v>0.9888607813449267</v>
+        <v>3.440593408173252</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="L10">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M10">
-        <v>1.048194343718027</v>
+        <v>4.208420357535069</v>
       </c>
       <c r="N10">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O10">
-        <v>0.9686543630543181</v>
+        <v>2.261254270805132</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.976284987120439</v>
       </c>
       <c r="Q10">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R10">
-        <v>1.042314553449994</v>
+        <v>3.967443744933946</v>
       </c>
       <c r="S10">
-        <v>1.004630242898663</v>
+        <v>3.467235513488323</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.531789127116859</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1177,220 +1282,256 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C11">
-        <v>1.043061760259288</v>
+        <v>4.071342939680246</v>
       </c>
       <c r="D11">
-        <v>1.007547763174238</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.556214750511108</v>
       </c>
       <c r="G11">
-        <v>1.063879119723762</v>
+        <v>4.295635107941979</v>
       </c>
       <c r="H11">
-        <v>1.041651917138526</v>
+        <v>3.871507734610816</v>
       </c>
       <c r="I11">
-        <v>0.9888607813449256</v>
+        <v>3.439688272684523</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L11">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M11">
-        <v>1.048278911584301</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N11">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O11">
-        <v>0.9686543630543183</v>
+        <v>2.261386434524745</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.971628835736283</v>
       </c>
       <c r="Q11">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R11">
-        <v>1.042220403815936</v>
+        <v>3.974219363029699</v>
       </c>
       <c r="S11">
-        <v>1.004862998135761</v>
+        <v>3.467124307574999</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.53200833875892</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C12">
-        <v>1.043061760259288</v>
+        <v>4.07121552458028</v>
       </c>
       <c r="D12">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="G12">
+        <v>4.2957337050834</v>
       </c>
       <c r="H12">
-        <v>1.041651917138526</v>
+        <v>3.863953670101817</v>
       </c>
       <c r="I12">
-        <v>0.9885020446512783</v>
+        <v>3.440433990235853</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L12">
+        <v>4.353045055654779</v>
       </c>
       <c r="M12">
-        <v>1.048194343718027</v>
+        <v>4.208533360536908</v>
       </c>
       <c r="N12">
-        <v>1.025330064300367</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O12">
-        <v>0.9680497855920076</v>
+        <v>2.261218190292857</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.974074787511603</v>
+      </c>
+      <c r="Q12">
+        <v>4.306441626368934</v>
       </c>
       <c r="R12">
-        <v>1.042314553449994</v>
+        <v>3.981065856739904</v>
       </c>
       <c r="S12">
-        <v>1.004630242898662</v>
+        <v>3.467145511068332</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.53186269466536</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C13">
-        <v>1.04315442543658</v>
+        <v>4.07112523774197</v>
       </c>
       <c r="D13">
-        <v>1.007547763174238</v>
+        <v>3.518588080448546</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.556214750511108</v>
+      </c>
+      <c r="G13">
+        <v>4.295582889946659</v>
       </c>
       <c r="H13">
-        <v>1.041651917138526</v>
+        <v>3.868435330294201</v>
       </c>
       <c r="I13">
-        <v>0.9888607813449256</v>
+        <v>3.43999172858151</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="L13">
+        <v>4.353100076870903</v>
       </c>
       <c r="M13">
-        <v>1.048278911584301</v>
+        <v>4.208533360536908</v>
       </c>
       <c r="N13">
-        <v>1.025056581907364</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O13">
-        <v>0.9674360913562696</v>
+        <v>2.261511936958509</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.972075179073236</v>
+      </c>
+      <c r="Q13">
+        <v>4.306441626368934</v>
       </c>
       <c r="R13">
-        <v>1.042314553449994</v>
+        <v>3.981517225759234</v>
       </c>
       <c r="S13">
-        <v>1.004862998135761</v>
+        <v>3.467238962156719</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.532060630240617</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C14">
-        <v>1.043246929984974</v>
+        <v>4.034741208626125</v>
       </c>
       <c r="D14">
-        <v>1.007547763174238</v>
+        <v>3.50531332612882</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.556214750511108</v>
+      </c>
+      <c r="G14">
+        <v>4.29575411211403</v>
       </c>
       <c r="H14">
-        <v>1.041651917138526</v>
+        <v>3.86769344606134</v>
       </c>
       <c r="I14">
-        <v>0.9888607813449256</v>
+        <v>3.428141111232951</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L14">
+        <v>4.353155097719873</v>
       </c>
       <c r="M14">
-        <v>1.048278911584301</v>
+        <v>4.153855662753409</v>
       </c>
       <c r="N14">
-        <v>1.025056581907364</v>
+        <v>3.551119888882181</v>
       </c>
       <c r="O14">
-        <v>0.9680497855920076</v>
+        <v>2.174791686233654</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.908998535870269</v>
+      </c>
+      <c r="Q14">
+        <v>4.306441626368934</v>
       </c>
       <c r="R14">
-        <v>1.042220403815936</v>
+        <v>3.974183494538298</v>
       </c>
       <c r="S14">
-        <v>1.004862998135761</v>
+        <v>3.445988720747873</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.4716454237799146</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1400,100 +1541,124 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C15">
-        <v>1.04315442543658</v>
+        <v>4.07138745007426</v>
       </c>
       <c r="D15">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="G15">
+        <v>4.295722764863927</v>
       </c>
       <c r="H15">
-        <v>1.041651917138526</v>
+        <v>3.867485522369351</v>
       </c>
       <c r="I15">
-        <v>0.9885020446512783</v>
+        <v>3.440325267377434</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L15">
+        <v>4.353155097719873</v>
       </c>
       <c r="M15">
-        <v>1.048278911584301</v>
+        <v>4.208533360536908</v>
       </c>
       <c r="N15">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O15">
-        <v>0.9680497855920076</v>
+        <v>2.26138090163002</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.976385150708583</v>
+      </c>
+      <c r="Q15">
+        <v>4.306441626368934</v>
       </c>
       <c r="R15">
-        <v>1.042314553449994</v>
+        <v>3.974168931560793</v>
       </c>
       <c r="S15">
-        <v>1.004630242898662</v>
+        <v>3.466880239250449</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.53210850934751</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>4.265737142787196</v>
+      </c>
       <c r="C16">
-        <v>1.042220403815936</v>
+        <v>3.76770818840785</v>
       </c>
       <c r="D16">
-        <v>1.004160297575708</v>
+        <v>3.243528567788223</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1.91838753670601</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="G16">
+        <v>4.295684418067227</v>
       </c>
       <c r="H16">
-        <v>1.041747096787062</v>
+        <v>3.877246129663642</v>
       </c>
       <c r="I16">
-        <v>0.989216126542858</v>
+        <v>3.4398707391187</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="L16">
+        <v>3.965520090785206</v>
       </c>
       <c r="M16">
-        <v>1.0425959951379</v>
+        <v>0.8526616079029803</v>
       </c>
       <c r="N16">
-        <v>1.016865951760459</v>
+        <v>0.4081462527171527</v>
       </c>
       <c r="O16">
-        <v>0.9122434990573892</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <v>4.278223289848775</v>
+      </c>
       <c r="R16">
-        <v>1.04184210244375</v>
+        <v>1.931350907374722</v>
       </c>
       <c r="S16">
-        <v>1.003202119947885</v>
+        <v>1.276283792835557</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1506,100 +1671,124 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>4.306830248219121</v>
+      </c>
       <c r="C17">
-        <v>1.042968933607929</v>
+        <v>4.04428305910812</v>
       </c>
       <c r="D17">
-        <v>1.00689454900391</v>
+        <v>3.514294524975406</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.100580125323152</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.540320400159231</v>
+      </c>
+      <c r="G17">
+        <v>4.295891335406337</v>
       </c>
       <c r="H17">
-        <v>1.041747096787062</v>
+        <v>3.87990977791071</v>
       </c>
       <c r="I17">
-        <v>0.989216126542858</v>
+        <v>3.437505403238973</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L17">
+        <v>4.259360217776435</v>
       </c>
       <c r="M17">
-        <v>1.047769675776071</v>
+        <v>4.111398832558246</v>
       </c>
       <c r="N17">
-        <v>1.02422501529636</v>
+        <v>3.498039187566309</v>
       </c>
       <c r="O17">
-        <v>0.9642216998946141</v>
+        <v>2.089935237921324</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.936694856537896</v>
+      </c>
+      <c r="Q17">
+        <v>4.270041643175901</v>
       </c>
       <c r="R17">
-        <v>1.042314553449994</v>
+        <v>3.963412308223247</v>
       </c>
       <c r="S17">
-        <v>1.004630242898662</v>
+        <v>3.471406482852283</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.516721783402873</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>4.262661076767321</v>
+      </c>
       <c r="C18">
-        <v>1.04184210244375</v>
+        <v>3.76664344394961</v>
       </c>
       <c r="D18">
-        <v>1.002958647398784</v>
+        <v>3.249839033057899</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.038145835561646</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.536495868049147</v>
+      </c>
+      <c r="G18">
+        <v>4.295710463772201</v>
       </c>
       <c r="H18">
-        <v>1.041651917138526</v>
+        <v>3.863001359862631</v>
       </c>
       <c r="I18">
-        <v>0.989216126542858</v>
+        <v>3.428171738066164</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L18">
+        <v>4.125436944014515</v>
       </c>
       <c r="M18">
-        <v>1.0425959951379</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.0214731421349</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9536370775519365</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
+      <c r="Q18">
+        <v>4.270097530520596</v>
+      </c>
       <c r="R18">
-        <v>1.04184210244375</v>
+        <v>1.638023421065522</v>
       </c>
       <c r="S18">
-        <v>1.004862998135761</v>
+        <v>1.204552721162381</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1612,100 +1801,124 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>4.307218851400546</v>
+      </c>
       <c r="C19">
-        <v>1.043061760259288</v>
+        <v>4.011406034420549</v>
       </c>
       <c r="D19">
-        <v>1.007547763174238</v>
+        <v>3.449948423083387</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.099348599787061</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.520119724322032</v>
+      </c>
+      <c r="G19">
+        <v>4.295809569121229</v>
       </c>
       <c r="H19">
-        <v>1.041651917138526</v>
+        <v>3.876126608134154</v>
       </c>
       <c r="I19">
-        <v>0.989216126542858</v>
+        <v>3.43754916313756</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="L19">
+        <v>4.296388296170455</v>
       </c>
       <c r="M19">
-        <v>1.048194343718027</v>
+        <v>4.040912057611719</v>
       </c>
       <c r="N19">
-        <v>1.025193550437113</v>
+        <v>3.40882103730994</v>
       </c>
       <c r="O19">
-        <v>0.9491265277777781</v>
+        <v>2.008771244410957</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.859669599986962</v>
+      </c>
+      <c r="Q19">
+        <v>4.287003399025974</v>
       </c>
       <c r="R19">
-        <v>1.042220403815936</v>
+        <v>3.934243675215233</v>
       </c>
       <c r="S19">
-        <v>1.004862998135761</v>
+        <v>3.346762654874645</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2.160023960402381</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.522898010734611</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C20">
-        <v>1.04315442543658</v>
+        <v>3.982640349229144</v>
       </c>
       <c r="D20">
-        <v>1.007331297478956</v>
+        <v>3.509023515019357</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.556046400123073</v>
+      </c>
+      <c r="G20">
+        <v>4.295902454536922</v>
       </c>
       <c r="H20">
-        <v>1.041651917138526</v>
+        <v>3.864710080105228</v>
       </c>
       <c r="I20">
-        <v>0.9888607813449256</v>
+        <v>3.440379100820969</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L20">
+        <v>4.353100076870903</v>
       </c>
       <c r="M20">
-        <v>1.048278911584301</v>
+        <v>2.573322772051346</v>
       </c>
       <c r="N20">
-        <v>1.025330064300367</v>
+        <v>1.780452707361559</v>
       </c>
       <c r="O20">
-        <v>0.9674360913562696</v>
+        <v>0.584933645459444</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3192966080352737</v>
+      </c>
+      <c r="Q20">
+        <v>4.306441626368934</v>
       </c>
       <c r="R20">
-        <v>1.042220403815936</v>
+        <v>3.911080564286184</v>
       </c>
       <c r="S20">
-        <v>1.004630242898662</v>
+        <v>1.493160964310382</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -1718,79 +1931,109 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>4.307218851400546</v>
+      </c>
       <c r="C21">
-        <v>1.043061760259288</v>
+        <v>4.063027892629357</v>
       </c>
       <c r="D21">
-        <v>1.007331297478956</v>
+        <v>3.515918370067675</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="G21">
+        <v>4.29568119596292</v>
       </c>
       <c r="H21">
-        <v>1.041651917138526</v>
+        <v>3.877598991648906</v>
       </c>
       <c r="I21">
-        <v>0.9888607813449256</v>
+        <v>3.440689169565581</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="L21">
+        <v>4.353100076870903</v>
       </c>
       <c r="M21">
-        <v>1.048278911584301</v>
+        <v>4.186372906775676</v>
       </c>
       <c r="N21">
-        <v>1.025193550437113</v>
+        <v>3.571034712136698</v>
       </c>
       <c r="O21">
-        <v>0.9680497855920076</v>
+        <v>2.23251068111304</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.947995583988785</v>
+      </c>
+      <c r="Q21">
+        <v>4.306497144919303</v>
       </c>
       <c r="R21">
-        <v>1.042220403815936</v>
+        <v>3.978132873946908</v>
       </c>
       <c r="S21">
-        <v>1.004630242898662</v>
+        <v>3.450515620930872</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.976696388798558</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.340280135148689</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>3.962450158657169</v>
+      </c>
+      <c r="C22">
+        <v>3.412259442719821</v>
+      </c>
       <c r="D22">
-        <v>0.9906047807445099</v>
+        <v>2.839363163468603</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.841690323305814</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.46130836316579</v>
+      </c>
+      <c r="G22">
+        <v>4.29589879592779</v>
+      </c>
+      <c r="H22">
+        <v>3.867289899532671</v>
       </c>
       <c r="I22">
-        <v>0.9885020446512797</v>
+        <v>3.427939105069871</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="L22">
+        <v>3.871388145735863</v>
+      </c>
+      <c r="M22">
+        <v>0.5498666984032934</v>
       </c>
       <c r="N22">
-        <v>0.9938662007457995</v>
+        <v>0.01504840235129312</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1798,8 +2041,14 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>4.098840804468774</v>
+      </c>
+      <c r="R22">
+        <v>1.530828377514495</v>
+      </c>
       <c r="S22">
-        <v>0.9906047807445099</v>
+        <v>0.7322458756167767</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -1812,76 +2061,124 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>4.307218851400546</v>
+      </c>
+      <c r="C23">
+        <v>4.045675345210774</v>
+      </c>
       <c r="D23">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.104175401702725</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.555886373567444</v>
+      </c>
+      <c r="G23">
+        <v>4.295905132853639</v>
+      </c>
+      <c r="H23">
+        <v>3.874610939361305</v>
       </c>
       <c r="I23">
-        <v>0.9888607813449256</v>
+        <v>3.439631606429446</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="L23">
+        <v>4.353100076870903</v>
+      </c>
+      <c r="M23">
+        <v>4.208533360536908</v>
       </c>
       <c r="N23">
-        <v>1.025056581907364</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O23">
-        <v>0.9686543630543183</v>
+        <v>2.261414528369372</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.968894812001968</v>
+      </c>
+      <c r="Q23">
+        <v>4.306441626368934</v>
+      </c>
+      <c r="R23">
+        <v>3.981218580061718</v>
       </c>
       <c r="S23">
-        <v>1.004630242898662</v>
+        <v>3.467158576762865</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.531637856377721</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>4.307274364617102</v>
+      </c>
+      <c r="C24">
+        <v>3.997108377562489</v>
+      </c>
       <c r="D24">
-        <v>1.007547763174238</v>
+        <v>3.494869028552222</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.556540782035249</v>
+      </c>
+      <c r="G24">
+        <v>4.295811234678846</v>
+      </c>
+      <c r="H24">
+        <v>3.872831620854202</v>
       </c>
       <c r="I24">
-        <v>0.9888607813449256</v>
+        <v>3.427995510625993</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L24">
+        <v>4.353100076870903</v>
+      </c>
+      <c r="M24">
+        <v>2.269484999547579</v>
       </c>
       <c r="N24">
-        <v>1.025466127108279</v>
+        <v>1.875067842851752</v>
       </c>
       <c r="O24">
-        <v>0.9680497855920076</v>
+        <v>0.6003007931114357</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3637361310703666</v>
+      </c>
+      <c r="Q24">
+        <v>4.306497144919303</v>
+      </c>
+      <c r="R24">
+        <v>3.949803624700887</v>
       </c>
       <c r="S24">
-        <v>1.004630242898662</v>
+        <v>1.599620021999171</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -1894,35 +2191,59 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>3.962450158657169</v>
+      </c>
+      <c r="C25">
+        <v>3.53204593847409</v>
+      </c>
       <c r="D25">
-        <v>0.9906047807445088</v>
+        <v>3.028458880722043</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.900711807657269</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.461399843311241</v>
+      </c>
+      <c r="G25">
+        <v>4.29258391263884</v>
+      </c>
+      <c r="H25">
+        <v>3.872069200433446</v>
       </c>
       <c r="I25">
-        <v>0.9885020446512783</v>
+        <v>3.428113012630819</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L25">
+        <v>3.871388145735863</v>
+      </c>
+      <c r="M25">
+        <v>3.495162498102803</v>
       </c>
       <c r="N25">
-        <v>0.9938662007457983</v>
+        <v>2.892099997636858</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.674342164389929</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.541020696787476</v>
+      </c>
+      <c r="Q25">
+        <v>4.099838267781749</v>
+      </c>
+      <c r="R25">
+        <v>3.713002610677214</v>
       </c>
       <c r="S25">
-        <v>0.9906047807445088</v>
+        <v>1.252579437927024</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -1935,38 +2256,62 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>4.307218851400546</v>
+      </c>
+      <c r="C26">
+        <v>4.020007991003911</v>
+      </c>
       <c r="D26">
-        <v>1.007331297478956</v>
+        <v>3.507720143888455</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="G26">
+        <v>4.295631015088989</v>
+      </c>
+      <c r="H26">
+        <v>3.873710736888857</v>
       </c>
       <c r="I26">
-        <v>0.9888607813449256</v>
+        <v>3.439951821687889</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="L26">
+        <v>4.353100076870903</v>
+      </c>
+      <c r="M26">
+        <v>4.153798593349731</v>
       </c>
       <c r="N26">
-        <v>1.025193550437113</v>
+        <v>3.565139086480466</v>
       </c>
       <c r="O26">
-        <v>0.9680497855920076</v>
+        <v>2.261177324124303</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.904706736246282</v>
+      </c>
+      <c r="Q26">
+        <v>4.306441626368934</v>
+      </c>
+      <c r="R26">
+        <v>3.949745679087281</v>
       </c>
       <c r="S26">
-        <v>1.004862998135761</v>
+        <v>3.445809913671596</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2.079200075310431</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -1976,315 +2321,471 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="C27">
+        <v>4.071227950400019</v>
+      </c>
       <c r="D27">
-        <v>1.007331297478956</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.556035097807121</v>
+      </c>
+      <c r="H27">
+        <v>3.868351196975312</v>
       </c>
       <c r="I27">
-        <v>0.9888607813449256</v>
+        <v>3.440311448710921</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="M27">
+        <v>4.208533360536908</v>
       </c>
       <c r="N27">
-        <v>1.025193550437113</v>
+        <v>3.613155808637991</v>
       </c>
       <c r="O27">
-        <v>0.9686543630543183</v>
+        <v>2.261333875574654</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.971820842783107</v>
+      </c>
+      <c r="R27">
+        <v>3.970032146782286</v>
       </c>
       <c r="S27">
-        <v>1.004862998135761</v>
+        <v>3.467174815921735</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.531665162763945</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="C28">
+        <v>4.071396945732332</v>
+      </c>
       <c r="D28">
-        <v>1.007331297478956</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.556169368099265</v>
+      </c>
+      <c r="H28">
+        <v>3.877270425675162</v>
       </c>
       <c r="I28">
-        <v>0.9885020446512783</v>
+        <v>3.440402151929353</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="M28">
+        <v>4.208476859239677</v>
       </c>
       <c r="N28">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O28">
-        <v>0.9674360913562696</v>
+        <v>2.261385609906169</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.976358731539639</v>
+      </c>
+      <c r="R28">
+        <v>3.963726388714748</v>
       </c>
       <c r="S28">
-        <v>1.004862998135761</v>
+        <v>3.467109946267237</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.531937678502247</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="C29">
+        <v>4.071079518837627</v>
+      </c>
       <c r="D29">
-        <v>1.007547763174238</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.55612894806635</v>
+      </c>
+      <c r="H29">
+        <v>3.867560200739663</v>
       </c>
       <c r="I29">
-        <v>0.9888607813449256</v>
+        <v>3.440542555348317</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="M29">
+        <v>4.208476859239677</v>
       </c>
       <c r="N29">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O29">
-        <v>0.9680497855920076</v>
+        <v>2.261169641802992</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.978703186572532</v>
+      </c>
+      <c r="R29">
+        <v>3.974535607868383</v>
       </c>
       <c r="S29">
-        <v>1.004862998135761</v>
+        <v>3.467380181096714</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.531942922433166</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="C30">
+        <v>4.071097177355976</v>
+      </c>
       <c r="D30">
-        <v>1.007547763174238</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.556227846376216</v>
+      </c>
+      <c r="H30">
+        <v>3.867725225078801</v>
       </c>
       <c r="I30">
-        <v>0.9888607813449256</v>
+        <v>3.440299450104078</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="M30">
+        <v>4.208476859239677</v>
       </c>
       <c r="N30">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O30">
-        <v>0.9680497855920076</v>
+        <v>2.261206246755146</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.973700455864353</v>
+      </c>
+      <c r="R30">
+        <v>3.978436768956115</v>
       </c>
       <c r="S30">
-        <v>1.004862998135761</v>
+        <v>3.467464458548931</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.531940722705284</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="C31">
+        <v>4.071035305331963</v>
+      </c>
       <c r="D31">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1.556592513709913</v>
+      </c>
+      <c r="H31">
+        <v>3.867213656621016</v>
       </c>
       <c r="I31">
-        <v>0.9888607813449256</v>
+        <v>3.440399493648516</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="M31">
+        <v>4.208476859239677</v>
       </c>
       <c r="N31">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O31">
-        <v>0.9674360913562696</v>
+        <v>2.261418676279985</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.971668460411507</v>
+      </c>
+      <c r="R31">
+        <v>3.974254360294419</v>
       </c>
       <c r="S31">
-        <v>1.004630242898662</v>
+        <v>3.467265316752091</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.532146614003726</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <v>4.071471023412092</v>
+      </c>
+      <c r="D32">
+        <v>3.518480058668575</v>
+      </c>
       <c r="E32">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="H32">
+        <v>3.870720535855999</v>
+      </c>
+      <c r="I32">
+        <v>3.440027957350017</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="M32">
+        <v>4.208476859239677</v>
+      </c>
+      <c r="N32">
+        <v>3.613049576922129</v>
       </c>
       <c r="O32">
-        <v>0.9686543630543183</v>
+        <v>2.261167055104463</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.976218421537185</v>
+      </c>
+      <c r="R32">
+        <v>3.974499194027611</v>
+      </c>
+      <c r="S32">
+        <v>3.467364263026845</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.5315072598738</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="C33">
+        <v>4.071194579502309</v>
+      </c>
+      <c r="D33">
+        <v>3.518480058668575</v>
+      </c>
       <c r="E33">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.555987262486247</v>
+      </c>
+      <c r="H33">
+        <v>3.872518231039029</v>
+      </c>
+      <c r="I33">
+        <v>3.440358520467741</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="M33">
+        <v>4.208476859239677</v>
+      </c>
+      <c r="N33">
+        <v>3.613102692939146</v>
       </c>
       <c r="O33">
-        <v>0.9686543630543183</v>
+        <v>2.261386148917691</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1.978415326831819</v>
+      </c>
+      <c r="R33">
+        <v>3.974366764529622</v>
+      </c>
+      <c r="S33">
+        <v>3.467041370897713</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.532015555402547</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="C34">
+        <v>4.071239160379191</v>
+      </c>
+      <c r="D34">
+        <v>3.518534069729952</v>
+      </c>
       <c r="E34">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.556036370786179</v>
+      </c>
+      <c r="H34">
+        <v>3.864112698714508</v>
+      </c>
+      <c r="I34">
+        <v>3.440406719854301</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="M34">
+        <v>4.208476859239677</v>
+      </c>
+      <c r="N34">
+        <v>3.613049576922129</v>
       </c>
       <c r="O34">
-        <v>0.9680497855920076</v>
+        <v>2.250104521991657</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.973973627561915</v>
+      </c>
+      <c r="R34">
+        <v>3.974420485854931</v>
+      </c>
+      <c r="S34">
+        <v>3.46725775487434</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.520130394370812</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="C35">
+        <v>3.819863102649219</v>
+      </c>
+      <c r="D35">
+        <v>3.403634377803557</v>
+      </c>
       <c r="E35">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="H35">
+        <v>3.876589488834517</v>
+      </c>
+      <c r="I35">
+        <v>3.440530440750553</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="M35">
+        <v>0.5584178557996116</v>
+      </c>
+      <c r="N35">
+        <v>0.2389477556985571</v>
       </c>
       <c r="O35">
-        <v>0.9680497855920076</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.771656305614396</v>
+      </c>
+      <c r="S35">
+        <v>1.251019480666128</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2297,23 +2798,47 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="C36">
+        <v>3.721188119298656</v>
+      </c>
+      <c r="D36">
+        <v>3.246485933614529</v>
+      </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.065336745309339</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.507899133603573</v>
+      </c>
+      <c r="H36">
+        <v>3.876651647281705</v>
+      </c>
+      <c r="I36">
+        <v>3.44156075423379</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="M36">
+        <v>1.433190387003667</v>
+      </c>
+      <c r="N36">
+        <v>0.9245397312401054</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
+      </c>
+      <c r="R36">
+        <v>3.845849889964156</v>
+      </c>
+      <c r="S36">
+        <v>0.3831051304058946</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -2326,52 +2851,76 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="D37">
+        <v>3.518534069729952</v>
+      </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.556567851088281</v>
+      </c>
+      <c r="I37">
+        <v>3.440747811187307</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="N37">
+        <v>3.613049576922129</v>
       </c>
       <c r="O37">
-        <v>0.9680497855920076</v>
+        <v>2.261451951221976</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.978303921119059</v>
+      </c>
+      <c r="S37">
+        <v>3.467085812929474</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1.532005317114026</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="D38">
+        <v>3.500347612618084</v>
+      </c>
       <c r="E38">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.556350575859674</v>
+      </c>
+      <c r="I38">
+        <v>3.440402138836913</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="N38">
+        <v>3.551066128803583</v>
       </c>
       <c r="O38">
-        <v>0.9686543630543183</v>
+        <v>2.174854939358942</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1.904953917214588</v>
+      </c>
+      <c r="S38">
+        <v>3.432967900669229</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -2384,52 +2933,76 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="D39">
+        <v>3.518480058668575</v>
+      </c>
       <c r="E39">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="I39">
+        <v>3.439997085546037</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N39">
+        <v>2.184981963050091</v>
       </c>
       <c r="O39">
-        <v>0.9680497855920076</v>
+        <v>0.8409501400539654</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>0.5557860598061413</v>
+      </c>
+      <c r="S39">
+        <v>3.452387701722054</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>2.076824690117705</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.528440419510859</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="D40">
+        <v>3.390486734661796</v>
+      </c>
       <c r="E40">
-        <v>0</v>
+        <v>2.100507025472382</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.556214750511108</v>
+      </c>
+      <c r="I40">
+        <v>3.428222575019978</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N40">
+        <v>0.2529655102447466</v>
       </c>
       <c r="O40">
-        <v>0.9674360913562696</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0.1256216868847693</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -2442,23 +3015,35 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="D41">
+        <v>3.431969749273885</v>
+      </c>
       <c r="E41">
-        <v>0</v>
+        <v>2.091315707147052</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1.531587272639487</v>
+      </c>
+      <c r="I41">
+        <v>3.427919231634504</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="N41">
+        <v>3.202062623215887</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1.968850744943631</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1.850012934985569</v>
+      </c>
+      <c r="S41">
+        <v>3.37768644528647</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -2471,14 +3056,38 @@
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="D42">
+        <v>3.408043479211811</v>
+      </c>
+      <c r="E42">
+        <v>2.093525835823449</v>
+      </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.539974656391343</v>
+      </c>
+      <c r="I42">
+        <v>3.428151649608521</v>
+      </c>
+      <c r="J42">
+        <v>2.097722777480963</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="N42">
+        <v>3.342079976286858</v>
+      </c>
+      <c r="O42">
+        <v>1.957393574108726</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1.833070403810509</v>
+      </c>
+      <c r="S42">
+        <v>3.420909305865404</v>
+      </c>
+      <c r="T42">
+        <v>0.02903331451264335</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -2488,14 +3097,38 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="D43">
+        <v>3.473230631789846</v>
+      </c>
+      <c r="E43">
+        <v>2.10402767342985</v>
+      </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.556414046869563</v>
+      </c>
+      <c r="I43">
+        <v>3.440627488266324</v>
+      </c>
+      <c r="J43">
+        <v>2.097821318928848</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N43">
+        <v>1.413106498150764</v>
+      </c>
+      <c r="O43">
+        <v>0.2662586664358917</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.08366146776868155</v>
+      </c>
+      <c r="S43">
+        <v>3.422981284214809</v>
+      </c>
+      <c r="T43">
+        <v>1.906217585213012</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -2505,13 +3138,37 @@
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="D44">
+        <v>2.931066267442886</v>
+      </c>
+      <c r="E44">
+        <v>1.938593681641883</v>
+      </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.44016291817206</v>
+      </c>
+      <c r="I44">
+        <v>3.42860777393355</v>
+      </c>
+      <c r="J44">
+        <v>2.097673506429633</v>
       </c>
       <c r="K44">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="N44">
+        <v>0.2855070580070349</v>
+      </c>
+      <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1.119605644949079</v>
+      </c>
+      <c r="T44">
         <v>0</v>
       </c>
       <c r="U44">
@@ -2522,30 +3179,78 @@
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="D45">
+        <v>3.518588080448546</v>
+      </c>
+      <c r="E45">
+        <v>2.10402767342985</v>
+      </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.556185405930986</v>
+      </c>
+      <c r="I45">
+        <v>3.440371751928516</v>
+      </c>
+      <c r="J45">
+        <v>2.097772048314032</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N45">
+        <v>3.613049576922129</v>
+      </c>
+      <c r="O45">
+        <v>2.261224900082281</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1.973588093010205</v>
+      </c>
+      <c r="S45">
+        <v>3.46714504280966</v>
+      </c>
+      <c r="T45">
+        <v>2.102648781988058</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1.532119455001131</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="D46">
+        <v>3.328323535000787</v>
+      </c>
+      <c r="E46">
+        <v>1.990153393981028</v>
+      </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.51902569111609</v>
+      </c>
+      <c r="I46">
+        <v>3.428346312064606</v>
+      </c>
+      <c r="J46">
+        <v>2.097673506429633</v>
       </c>
       <c r="K46">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="N46">
+        <v>0.3074059922439998</v>
+      </c>
+      <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>1.217490981339769</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
@@ -2556,30 +3261,54 @@
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="E47">
+        <v>2.103929186829435</v>
+      </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.556169475175335</v>
+      </c>
+      <c r="J47">
+        <v>2.097772048314032</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O47">
+        <v>2.182531186819138</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.923087467725008</v>
+      </c>
+      <c r="T47">
+        <v>1.976696388798558</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.159250933241556</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="E48">
+        <v>2.088455972528277</v>
+      </c>
       <c r="F48">
-        <v>0</v>
+        <v>1.512277642176644</v>
+      </c>
+      <c r="J48">
+        <v>2.097673506429633</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O48">
+        <v>1.882483721942079</v>
       </c>
       <c r="P48">
+        <v>1.688806963761489</v>
+      </c>
+      <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
@@ -2590,13 +3319,25 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="E49">
+        <v>2.079551869395929</v>
+      </c>
       <c r="F49">
-        <v>0</v>
+        <v>1.519299205812923</v>
+      </c>
+      <c r="J49">
+        <v>2.09787058932542</v>
       </c>
       <c r="K49">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
@@ -2607,14 +3348,26 @@
       <c r="A50" t="s">
         <v>48</v>
       </c>
+      <c r="E50">
+        <v>2.10402767342985</v>
+      </c>
       <c r="F50">
-        <v>0</v>
+        <v>1.556350575859674</v>
+      </c>
+      <c r="J50">
+        <v>2.097772048314032</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O50">
+        <v>2.13153504894429</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1.833501733578679</v>
+      </c>
+      <c r="T50">
+        <v>0.199659563793662</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -2624,144 +3377,84 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="E51">
+        <v>2.103879943203649</v>
+      </c>
       <c r="F51">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="J51">
+        <v>2.097722777480963</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O51">
+        <v>2.261210030459311</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.977760696382909</v>
+      </c>
+      <c r="T51">
+        <v>2.102550283225587</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.513589470322148</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>30</v>
-      </c>
       <c r="E52">
-        <v>40</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F52">
-        <v>50</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>20</v>
-      </c>
-      <c r="I52">
-        <v>30</v>
+        <v>1.556305300853272</v>
       </c>
       <c r="J52">
-        <v>40</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K52">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>30</v>
+        <v>1.520529969194051</v>
       </c>
       <c r="O52">
-        <v>40</v>
+        <v>2.261399679559659</v>
       </c>
       <c r="P52">
-        <v>50</v>
-      </c>
-      <c r="Q52">
-        <v>10</v>
-      </c>
-      <c r="R52">
-        <v>20</v>
-      </c>
-      <c r="S52">
-        <v>30</v>
+        <v>1.975969117310535</v>
       </c>
       <c r="T52">
-        <v>40</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U52">
-        <v>50</v>
+        <v>1.531993296508453</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
+        <v>1.556350575859674</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+        <v>1.520529969194051</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>2.174930843052897</v>
       </c>
       <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
+        <v>1.886643074205016</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>2.028327522710252</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -2771,59 +3464,23 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
+        <v>1.556350575859674</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>2.174831985649901</v>
       </c>
       <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
+        <v>1.908815992064238</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -2836,64 +3493,1067 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="E55">
+        <v>2.099545653022655</v>
+      </c>
+      <c r="F55">
+        <v>1.539016905571605</v>
+      </c>
+      <c r="J55">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K55">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O55">
+        <v>1.938153750394484</v>
+      </c>
+      <c r="P55">
+        <v>1.737901202954799</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1.362831457512701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>2.103830699360797</v>
+      </c>
+      <c r="F56">
+        <v>1.55651502506469</v>
+      </c>
+      <c r="J56">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K56">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O56">
+        <v>2.174908614619543</v>
+      </c>
+      <c r="P56">
+        <v>1.896838493348571</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>1.238622800222187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F57">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="J57">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K57">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O57">
+        <v>2.261152646866003</v>
+      </c>
+      <c r="P57">
+        <v>1.971616086584434</v>
+      </c>
+      <c r="T57">
+        <v>2.102648781988058</v>
+      </c>
+      <c r="U57">
+        <v>1.531928651899538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>2.10018605196277</v>
+      </c>
+      <c r="F58">
+        <v>1.540112667179782</v>
+      </c>
+      <c r="J58">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K58">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O58">
+        <v>2.083326317298257</v>
+      </c>
+      <c r="P58">
+        <v>1.821031164804006</v>
+      </c>
+      <c r="T58">
+        <v>2.102747279881315</v>
+      </c>
+      <c r="U58">
+        <v>1.531749131520115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F59">
+        <v>1.555825579139891</v>
+      </c>
+      <c r="J59">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K59">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O59">
+        <v>2.261182081076067</v>
+      </c>
+      <c r="P59">
+        <v>1.978388431172299</v>
+      </c>
+      <c r="T59">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U59">
+        <v>1.532200035414382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F60">
+        <v>1.556350575859674</v>
+      </c>
+      <c r="J60">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K60">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O60">
+        <v>2.261131413454271</v>
+      </c>
+      <c r="P60">
+        <v>1.9714147026099</v>
+      </c>
+      <c r="T60">
+        <v>2.102599532715481</v>
+      </c>
+      <c r="U60">
+        <v>1.531948869138791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F61">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="J61">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K61">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O61">
+        <v>2.174361161470104</v>
+      </c>
+      <c r="P61">
+        <v>1.90083646463822</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1.414630145444846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>2.10402767342985</v>
+      </c>
+      <c r="F62">
+        <v>1.556350575859674</v>
+      </c>
+      <c r="J62">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K62">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O62">
+        <v>0.210247451091045</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F63">
+        <v>1.556531674787531</v>
+      </c>
+      <c r="J63">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K63">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O63">
+        <v>2.174751238787842</v>
+      </c>
+      <c r="P63">
+        <v>1.898854212539506</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1.211504151231277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F64">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="J64">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K64">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O64">
+        <v>2.261023283950415</v>
+      </c>
+      <c r="P64">
+        <v>1.971732013906701</v>
+      </c>
+      <c r="T64">
+        <v>2.102599532715481</v>
+      </c>
+      <c r="U64">
+        <v>1.53214664275716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>2.100371536334294</v>
+      </c>
+      <c r="F65">
+        <v>1.556305300853272</v>
+      </c>
+      <c r="J65">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K65">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O65">
+        <v>2.175014036419374</v>
+      </c>
+      <c r="P65">
+        <v>1.901463717250999</v>
+      </c>
+      <c r="T65">
+        <v>2.038181873371607</v>
+      </c>
+      <c r="U65">
+        <v>1.405821042179422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F66">
+        <v>1.556536566235384</v>
+      </c>
+      <c r="J66">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K66">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O66">
+        <v>2.261169043010621</v>
+      </c>
+      <c r="P66">
+        <v>1.976189390257391</v>
+      </c>
+      <c r="T66">
+        <v>2.102648781988058</v>
+      </c>
+      <c r="U66">
+        <v>1.531556113020996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F67">
+        <v>1.556305300853272</v>
+      </c>
+      <c r="J67">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K67">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O67">
+        <v>2.261397711139454</v>
+      </c>
+      <c r="P67">
+        <v>1.971615788289613</v>
+      </c>
+      <c r="T67">
+        <v>2.102648781988058</v>
+      </c>
+      <c r="U67">
+        <v>1.53174822720077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F68">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="J68">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K68">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O68">
+        <v>2.261148672390279</v>
+      </c>
+      <c r="P68">
+        <v>1.971715699883541</v>
+      </c>
+      <c r="T68">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U68">
+        <v>1.531629161980848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>2.095261551353835</v>
+      </c>
+      <c r="F69">
+        <v>1.524449604102968</v>
+      </c>
+      <c r="J69">
+        <v>2.097673506429633</v>
+      </c>
+      <c r="K69">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F70">
+        <v>1.556305300853272</v>
+      </c>
+      <c r="J70">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K70">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O70">
+        <v>2.26136851743478</v>
+      </c>
+      <c r="P70">
+        <v>1.975541095420114</v>
+      </c>
+      <c r="T70">
+        <v>2.102599532715481</v>
+      </c>
+      <c r="U70">
+        <v>1.531984524101129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>2.010078786987012</v>
+      </c>
+      <c r="F71">
+        <v>1.515196036972647</v>
+      </c>
+      <c r="J71">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K71">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>2.050224686688872</v>
+      </c>
+      <c r="F72">
+        <v>1.507306125812827</v>
+      </c>
+      <c r="J72">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K72">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O72">
+        <v>1.903015926751809</v>
+      </c>
+      <c r="P72">
+        <v>1.731558580992197</v>
+      </c>
+      <c r="T72">
+        <v>2.084357805579865</v>
+      </c>
+      <c r="U72">
+        <v>1.507914419300946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F73">
+        <v>1.556169475175335</v>
+      </c>
+      <c r="J73">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K73">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O73">
+        <v>2.261326592751217</v>
+      </c>
+      <c r="P73">
+        <v>1.975953176771346</v>
+      </c>
+      <c r="T73">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U73">
+        <v>1.520259809400472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F74">
+        <v>1.556110003279958</v>
+      </c>
+      <c r="J74">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K74">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O74">
+        <v>2.261289499156583</v>
+      </c>
+      <c r="P74">
+        <v>1.9719077338438</v>
+      </c>
+      <c r="T74">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U74">
+        <v>1.531873748752479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>2.096824731743685</v>
+      </c>
+      <c r="F75">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="J75">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K75">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O75">
+        <v>0.2179122799539208</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1.984844270754088</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>2.095022108722412</v>
+      </c>
+      <c r="F76">
+        <v>1.556350575859674</v>
+      </c>
+      <c r="J76">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K76">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O76">
+        <v>1.956722249789715</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0.190481423567141</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="K77">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="P77">
+        <v>1.865042263274598</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78">
+        <v>1.556489494937893</v>
+      </c>
+      <c r="K78">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79">
+        <v>1.49005437958426</v>
+      </c>
+      <c r="K79">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="P79">
+        <v>1.594096985135899</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80">
+        <v>1.556305300853272</v>
+      </c>
+      <c r="K80">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="P80">
+        <v>1.914698640229551</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <v>1.556350575859674</v>
+      </c>
+      <c r="K81">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="P81">
+        <v>1.974435953086123</v>
+      </c>
+      <c r="U81">
+        <v>1.531664766056952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <v>1.556169475175335</v>
+      </c>
+      <c r="K82">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="P82">
+        <v>1.978801802144815</v>
+      </c>
+      <c r="U82">
+        <v>1.531909847102116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>1.556612019777716</v>
+      </c>
+      <c r="K83">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="P83">
+        <v>1.973584170963531</v>
+      </c>
+      <c r="U83">
+        <v>1.53194339274932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <v>1.524267314857796</v>
+      </c>
+      <c r="K84">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="P84">
+        <v>1.808220717683742</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="K85">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="P85">
+        <v>1.972068103572218</v>
+      </c>
+      <c r="U85">
+        <v>1.53185487742694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86">
+        <v>1.556219449617919</v>
+      </c>
+      <c r="K86">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="P86">
+        <v>1.97379910077817</v>
+      </c>
+      <c r="U86">
+        <v>1.531982898486236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>35</v>
+      </c>
+      <c r="D87">
+        <v>45</v>
+      </c>
+      <c r="E87">
+        <v>75</v>
+      </c>
+      <c r="F87">
+        <v>85</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87">
+        <v>35</v>
+      </c>
+      <c r="I87">
+        <v>45</v>
+      </c>
+      <c r="J87">
+        <v>75</v>
+      </c>
+      <c r="K87">
+        <v>85</v>
+      </c>
+      <c r="L87">
+        <v>25</v>
+      </c>
+      <c r="M87">
+        <v>35</v>
+      </c>
+      <c r="N87">
+        <v>45</v>
+      </c>
+      <c r="O87">
+        <v>75</v>
+      </c>
+      <c r="P87">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>25</v>
+      </c>
+      <c r="R87">
+        <v>35</v>
+      </c>
+      <c r="S87">
+        <v>45</v>
+      </c>
+      <c r="T87">
+        <v>75</v>
+      </c>
+      <c r="U87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C88">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D88">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="H88">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="M88">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="N88">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="R88">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S88">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.92</v>
+      </c>
+      <c r="C89">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0.88</v>
+      </c>
+      <c r="M89">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F90">
         <v>1</v>
       </c>
-      <c r="L55">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0.2</v>
+      </c>
+      <c r="N90">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="O90">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="P90">
         <v>1</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="S90">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="T90">
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="U90">
         <v>1</v>
       </c>
     </row>
